--- a/results/mp/logistic/corona/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,28 +58,37 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
@@ -91,49 +100,34 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7191780821917808</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -610,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3294573643410852</v>
+        <v>0.3236434108527132</v>
       </c>
       <c r="C5">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1879194630872483</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8198433420365535</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -786,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8113207547169812</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -812,13 +806,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -838,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -856,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -864,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -890,13 +884,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -916,13 +910,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -942,13 +936,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -968,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7605633802816901</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -994,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.7375</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1020,13 +1014,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1046,13 +1040,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1064,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1098,13 +1092,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.65</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1116,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1124,13 +1118,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1150,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6058823529411764</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L22">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="M22">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1176,13 +1170,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5692307692307692</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1202,13 +1196,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5638297872340425</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1228,13 +1222,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5606694560669456</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L25">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1254,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.559322033898305</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1280,7 +1274,7 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5285714285714286</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L27">
         <v>37</v>
@@ -1298,59 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28">
-        <v>0.3932584269662922</v>
-      </c>
-      <c r="L28">
-        <v>35</v>
-      </c>
-      <c r="M28">
-        <v>35</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
